--- a/files/test_files/Overall/Fracao_Final/composition_teste.xlsx
+++ b/files/test_files/Overall/Fracao_Final/composition_teste.xlsx
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="D45" s="19" t="n">
-        <v>3514088.075655271</v>
+        <v>8296.190516062403</v>
       </c>
       <c r="E45" s="19" t="n"/>
       <c r="G45" s="19" t="n"/>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D46" s="19" t="n">
-        <v>134907.7581017592</v>
+        <v>318.4952793473608</v>
       </c>
       <c r="E46" s="19" t="n"/>
       <c r="G46" s="19" t="n"/>
@@ -7016,7 +7016,7 @@
         </is>
       </c>
       <c r="D47" s="19" t="n">
-        <v>33.36810169136437</v>
+        <v>33.29874407252431</v>
       </c>
       <c r="E47" s="21" t="n"/>
       <c r="G47" s="19" t="n"/>
@@ -7309,7 +7309,7 @@
         </is>
       </c>
       <c r="D49" s="21" t="n">
-        <v>9936.588112500001</v>
+        <v>101.325</v>
       </c>
       <c r="E49" s="21" t="n"/>
       <c r="F49" s="21" t="n"/>
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="D54" s="33" t="n">
-        <v>774.839307540194</v>
+        <v>1.32678329430447</v>
       </c>
     </row>
     <row r="55" ht="18" customFormat="1" customHeight="1" s="18">
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="D55" s="33" t="n">
-        <v>1.590786763863847</v>
+        <v>1.312672665699904</v>
       </c>
     </row>
     <row r="56" ht="18" customFormat="1" customHeight="1" s="18">
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="D57" s="21" t="n">
-        <v>0.1670631120265793</v>
+        <v>0.9925954477440543</v>
       </c>
       <c r="G57" s="21" t="n"/>
       <c r="AH57" s="21" t="n"/>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="D59" s="33" t="n">
-        <v>3025.885112537143</v>
+        <v>4200.383205386872</v>
       </c>
     </row>
     <row r="60" ht="18" customFormat="1" customHeight="1" s="18">
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="D63" s="33" t="n">
-        <v>1177.239333887838</v>
+        <v>2.741794420291908</v>
       </c>
     </row>
     <row r="64" ht="18" customFormat="1" customHeight="1" s="18">

--- a/files/test_files/Overall/Fracao_Final/composition_teste.xlsx
+++ b/files/test_files/Overall/Fracao_Final/composition_teste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Composição" sheetId="1" state="visible" r:id="rId1"/>
@@ -353,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -656,7 +656,7 @@
   <dimension ref="A1:IP69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="XEH1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="XEH62" sqref="XEH62"/>
     </sheetView>
   </sheetViews>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="D51" s="21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E51" s="21" t="n"/>
       <c r="F51" s="21" t="n"/>
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="D52" s="21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E52" s="21" t="n"/>
       <c r="F52" s="21" t="n"/>
